--- a/data/trans_orig/P33B2_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P33B2_2023-Estudios-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>84197</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>70566</v>
+        <v>69053</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>102376</v>
+        <v>101246</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1455355003132255</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1219748415992882</v>
+        <v>0.1193592890088202</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1769596408424487</v>
+        <v>0.1750054342625705</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>278</v>
@@ -762,19 +762,19 @@
         <v>166895</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>149578</v>
+        <v>149212</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>184871</v>
+        <v>185383</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2032041536475367</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1821205577873257</v>
+        <v>0.1816742337590073</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2250918328394892</v>
+        <v>0.2257146636518777</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>383</v>
@@ -783,19 +783,19 @@
         <v>251091</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>228603</v>
+        <v>226720</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>278581</v>
+        <v>275156</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1793707843074781</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.163305863738908</v>
+        <v>0.1619609175010117</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1990084376510858</v>
+        <v>0.1965614103350816</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>67568</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>55996</v>
+        <v>54269</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>82341</v>
+        <v>81508</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1167922882937107</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.09679106125670026</v>
+        <v>0.09380541387908628</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1423279299100537</v>
+        <v>0.1408878859120889</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>277</v>
@@ -833,19 +833,19 @@
         <v>153499</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>135928</v>
+        <v>137872</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>170344</v>
+        <v>172243</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1868936463376803</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.165500385352334</v>
+        <v>0.1678674493436332</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2074043690385359</v>
+        <v>0.2097164799015485</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>369</v>
@@ -854,19 +854,19 @@
         <v>221066</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>197752</v>
+        <v>198629</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>242341</v>
+        <v>243029</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.1579220740726563</v>
+        <v>0.1579220740726562</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1412672898936854</v>
+        <v>0.1418932424996963</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1731196278222851</v>
+        <v>0.1736113803396643</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>93255</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>76636</v>
+        <v>76744</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>111043</v>
+        <v>109714</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1611929547566896</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1324674149380829</v>
+        <v>0.1326539282012687</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1919401738862465</v>
+        <v>0.1896435699581951</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>380</v>
@@ -904,19 +904,19 @@
         <v>201839</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>184180</v>
+        <v>183776</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>221497</v>
+        <v>220595</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2457512880007267</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2242502943493987</v>
+        <v>0.2237583228258036</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2696855638484282</v>
+        <v>0.2685869721805575</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>502</v>
@@ -925,19 +925,19 @@
         <v>295094</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>270175</v>
+        <v>268048</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>318600</v>
+        <v>318432</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2108049199053608</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1930036911827342</v>
+        <v>0.1914839326721759</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2275962829002803</v>
+        <v>0.2274764630292301</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>333510</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>310699</v>
+        <v>309138</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>356802</v>
+        <v>356164</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.5764792566363742</v>
+        <v>0.5764792566363743</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.5370498391771312</v>
+        <v>0.5343517868667244</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6167400448834468</v>
+        <v>0.6156378288303491</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>491</v>
@@ -975,19 +975,19 @@
         <v>299083</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>277688</v>
+        <v>279662</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>320433</v>
+        <v>324902</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3641509120140564</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3381016242413551</v>
+        <v>0.3405055964552902</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3901468444615808</v>
+        <v>0.3955878159837541</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>863</v>
@@ -996,19 +996,19 @@
         <v>632593</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>602609</v>
+        <v>600663</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>667364</v>
+        <v>667928</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.4519022217145049</v>
+        <v>0.4519022217145047</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4304823074380216</v>
+        <v>0.4290922882254096</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.476741135354149</v>
+        <v>0.4771445588674603</v>
       </c>
     </row>
     <row r="8">
@@ -1100,19 +1100,19 @@
         <v>119231</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>99703</v>
+        <v>99976</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>142696</v>
+        <v>142489</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.05347898320348701</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.0447200911432827</v>
+        <v>0.04484273718191219</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.06400385173576106</v>
+        <v>0.06391125243958914</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>238</v>
@@ -1121,19 +1121,19 @@
         <v>170894</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>150924</v>
+        <v>150184</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>194688</v>
+        <v>197695</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.07870254937337193</v>
+        <v>0.07870254937337191</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.06950572297103104</v>
+        <v>0.0691648538394638</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.08966044426899838</v>
+        <v>0.09104536357431575</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>366</v>
@@ -1142,19 +1142,19 @@
         <v>290125</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>259667</v>
+        <v>260094</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>323786</v>
+        <v>324035</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.06592428835330381</v>
+        <v>0.06592428835330383</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.05900343932669703</v>
+        <v>0.0591005996344388</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.07357314788729075</v>
+        <v>0.07362967127401777</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>140829</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>118895</v>
+        <v>119504</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>165567</v>
+        <v>167278</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.06316663764073842</v>
+        <v>0.06316663764073843</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.05332832702120512</v>
+        <v>0.05360179166594861</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07426245518430519</v>
+        <v>0.07502995294604513</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>363</v>
@@ -1192,19 +1192,19 @@
         <v>243002</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>219521</v>
+        <v>216485</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>268879</v>
+        <v>268280</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.111910667556282</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1010968823623993</v>
+        <v>0.09969889405769936</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1238280170319245</v>
+        <v>0.1235520186133858</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>513</v>
@@ -1213,19 +1213,19 @@
         <v>383831</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>351671</v>
+        <v>353066</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>422926</v>
+        <v>422226</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.08721693736619977</v>
+        <v>0.08721693736619979</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.07990938570635471</v>
+        <v>0.08022620172653241</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.09610048064352815</v>
+        <v>0.09594130845225234</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>406012</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>368479</v>
+        <v>369536</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>446003</v>
+        <v>445881</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1821101793374372</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1652754244310416</v>
+        <v>0.1657494262350944</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2000475093502795</v>
+        <v>0.1999927396905205</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>780</v>
@@ -1263,19 +1263,19 @@
         <v>490272</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>458899</v>
+        <v>458805</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>523350</v>
+        <v>527612</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.2257868116993777</v>
+        <v>0.2257868116993776</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2113386900062475</v>
+        <v>0.2112951790691843</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2410206562999564</v>
+        <v>0.2429834494796637</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1223</v>
@@ -1284,19 +1284,19 @@
         <v>896284</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>848675</v>
+        <v>848340</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>953433</v>
+        <v>941089</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2036602255917886</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1928423441636743</v>
+        <v>0.1927661387438711</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2166461333518466</v>
+        <v>0.2138412416672147</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>1563413</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1514677</v>
+        <v>1518726</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1612260</v>
+        <v>1608372</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.7012441998183374</v>
+        <v>0.7012441998183375</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.6793842552874969</v>
+        <v>0.6812003191193634</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.7231536078111879</v>
+        <v>0.7214096754505045</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>1540</v>
@@ -1334,19 +1334,19 @@
         <v>1267224</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1223060</v>
+        <v>1221434</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>1309361</v>
+        <v>1309021</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.5835999713709684</v>
+        <v>0.5835999713709683</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.5632609686775421</v>
+        <v>0.5625117778885537</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.60300533319653</v>
+        <v>0.6028488255619254</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>2810</v>
@@ -1355,19 +1355,19 @@
         <v>2830638</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>2765058</v>
+        <v>2766772</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>2894451</v>
+        <v>2888753</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.6431985486887076</v>
+        <v>0.6431985486887078</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.6282970880825076</v>
+        <v>0.62868656316593</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.6576986087802028</v>
+        <v>0.656403937789746</v>
       </c>
     </row>
     <row r="13">
@@ -1459,19 +1459,19 @@
         <v>26441</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>18494</v>
+        <v>17665</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>40319</v>
+        <v>39138</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.03715828169012751</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.02599009313413234</v>
+        <v>0.02482465259563944</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.05665998817219305</v>
+        <v>0.05500051825780519</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>53</v>
@@ -1480,19 +1480,19 @@
         <v>38726</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>28404</v>
+        <v>29927</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>51695</v>
+        <v>51177</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.0526978440084344</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.03865140276786068</v>
+        <v>0.04072329317391787</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.07034540043292212</v>
+        <v>0.06963963361227761</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>79</v>
@@ -1501,19 +1501,19 @@
         <v>65168</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>52213</v>
+        <v>51085</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>81339</v>
+        <v>80736</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.04505316800576386</v>
+        <v>0.04505316800576385</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.03609669419243437</v>
+        <v>0.03531746268826734</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.05623308875934546</v>
+        <v>0.05581580465146845</v>
       </c>
     </row>
     <row r="15">
@@ -1530,19 +1530,19 @@
         <v>54456</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>41126</v>
+        <v>40624</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>71301</v>
+        <v>71090</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.07652692548739931</v>
+        <v>0.0765269254873993</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.05779452717012053</v>
+        <v>0.0570897826717867</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1001992923534095</v>
+        <v>0.09990352332243764</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>98</v>
@@ -1551,19 +1551,19 @@
         <v>66035</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>53716</v>
+        <v>53572</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>78826</v>
+        <v>80002</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.08985825388952438</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.07309571435232949</v>
+        <v>0.0728992127954441</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1072637491623289</v>
+        <v>0.1088638123417174</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>149</v>
@@ -1572,19 +1572,19 @@
         <v>120490</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>101836</v>
+        <v>102770</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>142744</v>
+        <v>142002</v>
       </c>
       <c r="U15" s="6" t="n">
-        <v>0.08329991690217031</v>
+        <v>0.0832999169021703</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.07040333583727626</v>
+        <v>0.07104927918689938</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.09868491390209091</v>
+        <v>0.09817197362466044</v>
       </c>
     </row>
     <row r="16">
@@ -1601,19 +1601,19 @@
         <v>157854</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>136036</v>
+        <v>136506</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>180400</v>
+        <v>181100</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2218333805057762</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1911731470005789</v>
+        <v>0.1918330843706162</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2535171526559749</v>
+        <v>0.2545022348131282</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>281</v>
@@ -1622,19 +1622,19 @@
         <v>180783</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>161892</v>
+        <v>160948</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>202094</v>
+        <v>202371</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2460040239527262</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2202976081025679</v>
+        <v>0.2190133067206496</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2750035492899034</v>
+        <v>0.2753809847636216</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>452</v>
@@ -1643,19 +1643,19 @@
         <v>338636</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>308605</v>
+        <v>308749</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>370945</v>
+        <v>369359</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2341132940760988</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.213350981250653</v>
+        <v>0.2134508555872005</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2564495310246514</v>
+        <v>0.2553533139648996</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>472836</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>446446</v>
+        <v>445968</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>498369</v>
+        <v>497717</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.664481412316697</v>
+        <v>0.6644814123166969</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6273941598368518</v>
+        <v>0.6267224284643264</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.700362491886514</v>
+        <v>0.6994457669579194</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>572</v>
@@ -1693,19 +1693,19 @@
         <v>449333</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>426747</v>
+        <v>426285</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>472379</v>
+        <v>471912</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.611439878149315</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5807056428162076</v>
+        <v>0.5800764013495718</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6427998776039289</v>
+        <v>0.6421640788884891</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1005</v>
@@ -1714,19 +1714,19 @@
         <v>922169</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>885041</v>
+        <v>885345</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>956490</v>
+        <v>958073</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6375336210159671</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.611865235417053</v>
+        <v>0.6120752700265338</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6612607596204751</v>
+        <v>0.6623552034767102</v>
       </c>
     </row>
     <row r="18">
@@ -1818,19 +1818,19 @@
         <v>229868</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>201185</v>
+        <v>200439</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>261224</v>
+        <v>256394</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.06531095040443502</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.05716122603804184</v>
+        <v>0.05694934010716302</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.07421977359055541</v>
+        <v>0.07284737663189685</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>569</v>
@@ -1839,19 +1839,19 @@
         <v>376515</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>343276</v>
+        <v>348348</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>409935</v>
+        <v>408952</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1010078208154155</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.09209061602692115</v>
+        <v>0.09345147998513011</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1099733573970184</v>
+        <v>0.1097095285792946</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>828</v>
@@ -1860,19 +1860,19 @@
         <v>606384</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>563197</v>
+        <v>565242</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>650921</v>
+        <v>649465</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.08367160945031518</v>
+        <v>0.08367160945031515</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0777125316139263</v>
+        <v>0.07799475468781272</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.08981708682812105</v>
+        <v>0.08961612905099818</v>
       </c>
     </row>
     <row r="20">
@@ -1889,19 +1889,19 @@
         <v>262852</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>231501</v>
+        <v>232858</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>294801</v>
+        <v>295794</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.07468243851405895</v>
+        <v>0.07468243851405894</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.06577482311791756</v>
+        <v>0.06616033485392089</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.0837597342873279</v>
+        <v>0.08404187619277728</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>738</v>
@@ -1910,19 +1910,19 @@
         <v>462535</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>428801</v>
+        <v>431251</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>500543</v>
+        <v>501119</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.1240844592283128</v>
+        <v>0.1240844592283129</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1150346228574636</v>
+        <v>0.1156917836548629</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1342808764296441</v>
+        <v>0.1344352502015374</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1031</v>
@@ -1931,19 +1931,19 @@
         <v>725388</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>682569</v>
+        <v>680313</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>772617</v>
+        <v>770862</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.100092331540225</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.09418398551635171</v>
+        <v>0.09387268632600625</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1066093023691869</v>
+        <v>0.1063670482562224</v>
       </c>
     </row>
     <row r="21">
@@ -1960,19 +1960,19 @@
         <v>657120</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>609692</v>
+        <v>611306</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>709307</v>
+        <v>709086</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1867031106286285</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1732275798583899</v>
+        <v>0.1736862895662406</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2015306115658248</v>
+        <v>0.2014678601562059</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>1441</v>
@@ -1981,19 +1981,19 @@
         <v>872894</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>829882</v>
+        <v>829787</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>918378</v>
+        <v>918424</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2341714094049389</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2226326633519101</v>
+        <v>0.2226071486706649</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2463733856588764</v>
+        <v>0.2463857367241885</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>2177</v>
@@ -2002,19 +2002,19 @@
         <v>1530014</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>1467517</v>
+        <v>1468554</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>1596872</v>
+        <v>1597137</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2111183951979927</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2024946845108102</v>
+        <v>0.2026378789310619</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2203436809121302</v>
+        <v>0.2203802676637594</v>
       </c>
     </row>
     <row r="22">
@@ -2031,19 +2031,19 @@
         <v>2369760</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2305156</v>
+        <v>2311985</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>2424500</v>
+        <v>2429739</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.6733035004528773</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6549481768443391</v>
+        <v>0.656888318723659</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6888565647490829</v>
+        <v>0.6903449473073781</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>2603</v>
@@ -2052,19 +2052,19 @@
         <v>2015641</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1958700</v>
+        <v>1959171</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>2070582</v>
+        <v>2069042</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.5407363105513326</v>
+        <v>0.5407363105513328</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5254609286442262</v>
+        <v>0.5255872025327665</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.555475520433795</v>
+        <v>0.5550623528235723</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>4678</v>
@@ -2073,19 +2073,19 @@
         <v>4385400</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>4305062</v>
+        <v>4307567</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>4470014</v>
+        <v>4460316</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.6051176638114671</v>
+        <v>0.605117663811467</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5940322212710291</v>
+        <v>0.5943778567119392</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6167930290207779</v>
+        <v>0.6154548474062352</v>
       </c>
     </row>
     <row r="23">
